--- a/Sejal G HMS.xlsx
+++ b/Sejal G HMS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="185">
   <si>
     <t xml:space="preserve">Req ID </t>
   </si>
@@ -1065,6 +1065,9 @@
   <si>
     <t xml:space="preserve">new currency added successfully
 </t>
+  </si>
+  <si>
+    <t>reviewed by -Harsha J</t>
   </si>
 </sst>
 </file>
@@ -2036,10 +2039,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2913,6 +2916,11 @@
         <v>183</v>
       </c>
     </row>
+    <row r="48" spans="7:7">
+      <c r="G48" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
